--- a/取り組んだ時間.xlsx
+++ b/取り組んだ時間.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apln\git-local\yumemi-codingtest-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E703E2E-BA60-4D4A-B8CE-3835274EB419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994F3FFF-3351-4EEC-A6DB-3D1AAB942EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="2064" windowWidth="13464" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -137,7 +137,7 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -456,25 +456,29 @@
       <c r="A2" s="1">
         <v>44666.462233796294</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>44666.498645833337</v>
+      </c>
       <c r="C2" s="1">
         <f>B2-A2</f>
-        <v>-44666.462233796294</v>
+        <v>3.6412037043191958E-2</v>
       </c>
       <c r="E2" s="1">
         <f>SUM(C:C)</f>
-        <v>-44666.462233796294</v>
+        <v>-44666.46673043981</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>44666.503142476853</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
         <f>B3-A3</f>
-        <v>0</v>
+        <v>-44666.503142476853</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -484,7 +488,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1">
-        <f t="shared" ref="C3:C22" si="0">B4-A4</f>
+        <f t="shared" ref="C4:C22" si="0">B4-A4</f>
         <v>0</v>
       </c>
     </row>

--- a/取り組んだ時間.xlsx
+++ b/取り組んだ時間.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apln\git-local\yumemi-codingtest-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994F3FFF-3351-4EEC-A6DB-3D1AAB942EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66F70ED-7A6A-4D9B-8D77-EA7F3950700A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2088" yWindow="2064" windowWidth="13464" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="E2" s="1">
         <f>SUM(C:C)</f>
-        <v>-44666.46673043981</v>
+        <v>7.4383101855346467E-2</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>4</v>
@@ -475,10 +475,12 @@
       <c r="A3" s="1">
         <v>44666.503142476853</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>44666.541113541665</v>
+      </c>
       <c r="C3" s="1">
         <f>B3-A3</f>
-        <v>-44666.503142476853</v>
+        <v>3.7971064812154509E-2</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>

--- a/取り組んだ時間.xlsx
+++ b/取り組んだ時間.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apln\git-local\yumemi-codingtest-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66F70ED-7A6A-4D9B-8D77-EA7F3950700A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00E0C72-FAD6-450A-9724-446EB970B48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2088" yWindow="2064" windowWidth="13464" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="E2" s="1">
         <f>SUM(C:C)</f>
-        <v>7.4383101855346467E-2</v>
+        <v>-44666.53075543981</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>4</v>
@@ -487,19 +487,25 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1">
+        <v>44666.602534606478</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44666.653622916667</v>
+      </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C22" si="0">B4-A4</f>
-        <v>0</v>
+        <v>5.1088310188788455E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>44666.656226851854</v>
+      </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-44666.656226851854</v>
       </c>
     </row>
     <row r="6" spans="1:7">

--- a/取り組んだ時間.xlsx
+++ b/取り組んだ時間.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apln\git-local\yumemi-codingtest-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00E0C72-FAD6-450A-9724-446EB970B48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88390ECD-634C-461D-9E84-3B16BEBD04B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="2064" windowWidth="13464" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,14 +427,14 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -465,7 +465,7 @@
       </c>
       <c r="E2" s="1">
         <f>SUM(C:C)</f>
-        <v>-44666.53075543981</v>
+        <v>0.76065578703128267</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>4</v>
@@ -502,74 +502,108 @@
       <c r="A5" s="1">
         <v>44666.656226851854</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>44666.774177083331</v>
+      </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>-44666.656226851854</v>
+        <v>0.11795023147715256</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1">
+        <v>44666.903738425928</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44667.031247222221</v>
+      </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.12750879629311385</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1">
+        <v>44667.363671296298</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44667.451874999999</v>
+      </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.820370370085584E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1">
+        <v>44667.459808912034</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44667.48846064815</v>
+      </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.8651736116444226E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1">
+        <v>44667.495579050927</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44667.508206018516</v>
+      </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2626967589312699E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1">
+        <v>44667.51409178241</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44667.554297685187</v>
+      </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.0205902776506264E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1">
+        <v>44667.628355439818</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44667.678256134262</v>
+      </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.9900694444659166E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1">
+        <v>44667.680905555557</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44667.763472222221</v>
+      </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.2566666664206423E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1">
+        <v>44667.922018171295</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44668.00958784722</v>
+      </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.7569675924896728E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7">

--- a/取り組んだ時間.xlsx
+++ b/取り組んだ時間.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apln\git-local\yumemi-codingtest-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88390ECD-634C-461D-9E84-3B16BEBD04B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1BC56E-E0C5-43CE-8C8C-83E14BC01734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>始まり</t>
     <rPh sb="0" eb="1">
@@ -66,6 +66,19 @@
   </si>
   <si>
     <t>=NOW()で表示した時間をコピーして"値"で貼り付けて文字列とする</t>
+  </si>
+  <si>
+    <t>↓useEffect周りのバグで溶けた時間</t>
+    <rPh sb="10" eb="11">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -427,7 +440,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -465,7 +478,7 @@
       </c>
       <c r="E2" s="1">
         <f>SUM(C:C)</f>
-        <v>0.76065578703128267</v>
+        <v>0.86328981480619404</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>4</v>
@@ -509,6 +522,9 @@
         <f t="shared" si="0"/>
         <v>0.11795023147715256</v>
       </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
@@ -521,6 +537,10 @@
         <f t="shared" si="0"/>
         <v>0.12750879629311385</v>
       </c>
+      <c r="E6" s="1">
+        <f>SUM(C6:C11)</f>
+        <v>0.34709780092089204</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
@@ -607,11 +627,15 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1">
+        <v>44668.669701157407</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44668.772335185182</v>
+      </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10263402777491137</v>
       </c>
     </row>
     <row r="15" spans="1:7">

--- a/取り組んだ時間.xlsx
+++ b/取り組んだ時間.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apln\git-local\yumemi-codingtest-React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1BC56E-E0C5-43CE-8C8C-83E14BC01734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B73E8A4-B0F9-45AE-A78B-ADF79E694561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>始まり</t>
     <rPh sb="0" eb="1">
@@ -78,6 +78,10 @@
     <rPh sb="19" eb="21">
       <t>ジカン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25:15:14</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -148,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -157,6 +161,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -440,14 +446,14 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.09765625" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -476,9 +482,9 @@
         <f>B2-A2</f>
         <v>3.6412037043191958E-2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <f>SUM(C:C)</f>
-        <v>0.86328981480619404</v>
+        <v>1.0522422453577747</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>4</v>
@@ -495,6 +501,9 @@
         <f>B3-A3</f>
         <v>3.7971064812154509E-2</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
@@ -639,68 +648,58 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1">
+        <v>44668.773333333331</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44668.868845254627</v>
+      </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.5511921295837965E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1">
+        <v>44668.87242939815</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44668.965869907406</v>
+      </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.3440509255742654E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1"/>
